--- a/utils/archived/PrincipalComponentAnalysis_results.xlsx
+++ b/utils/archived/PrincipalComponentAnalysis_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/dimension_reduction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskrebs/Documents/School/master_thesis/repo/utils/archived/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C337DC0C-F8F2-3E4E-AB28-FD546D9E3B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F385F359-CA37-384C-A4F8-69DB430A937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19960" activeTab="3" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20220" activeTab="1" xr2:uid="{C8214493-C4A5-054C-B17C-3B65FE6FA079}"/>
   </bookViews>
   <sheets>
     <sheet name="Dimension Reduction" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Additional Information" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,7 +265,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1813,6 +1812,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1822,15 +1830,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1840,6 +1839,33 @@
     <xf numFmtId="0" fontId="14" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,37 +1875,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2252,40 +2251,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2293,51 +2292,51 @@
       <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
+      <c r="D2" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="100" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="103" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="102" t="s">
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103" t="s">
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="102" t="s">
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103" t="s">
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="102" t="s">
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
     </row>
     <row r="3" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -4831,17 +4830,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="C1:AD1"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4853,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5F400-409A-0B4A-826F-7E5FE6579C80}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5866,40 +5865,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="G1" s="118" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="G1" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-      <c r="G2" s="115" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="G2" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
@@ -5914,22 +5913,22 @@
       <c r="E3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113" t="s">
+      <c r="H3" s="120"/>
+      <c r="I3" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="111" t="s">
+      <c r="J3" s="116"/>
+      <c r="K3" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121" t="s">
+      <c r="L3" s="114"/>
+      <c r="M3" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="114"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
@@ -6060,14 +6059,14 @@
       <c r="H7" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="108" t="s">
+      <c r="J7" s="118"/>
+      <c r="K7" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="109"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="71" t="s">
         <v>43</v>
       </c>
@@ -6264,10 +6263,10 @@
       <c r="E15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="82"/>
       <c r="J15" s="74"/>
       <c r="K15" s="82"/>
@@ -6479,17 +6478,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2:E2" r:id="rId1" display="ISO 5055" xr:uid="{ED262037-3A3D-4744-B239-76D2CA4C7BC5}"/>
@@ -6504,8 +6503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D0DEC6-391A-0147-B4F5-B4ED50B60C04}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6625,9 +6624,9 @@
       <c r="D6" s="54"/>
       <c r="E6" s="1"/>
       <c r="F6" s="97"/>
-      <c r="G6" s="110"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="123"/>
-      <c r="I6" s="110"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="123"/>
       <c r="K6" s="1"/>
       <c r="L6" s="97"/>
@@ -6783,8 +6782,8 @@
         <v>80</v>
       </c>
       <c r="D14" s="54"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="1"/>
